--- a/biology/Botanique/Quercus_buckleyi/Quercus_buckleyi.xlsx
+++ b/biology/Botanique/Quercus_buckleyi/Quercus_buckleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus buckleyi est une espèce de chênes de la section Lobatae (les « chênes rouges ») de taille moyenne (jusqu'à 15 m) à feuilles caduques que l'on peut trouver au Texas et dans l'Oklahoma. Ses feuilles possèdent 7 à 9 lobes.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, buckleyi, lui a été donnée en l'honneur de Samuel Botsford Buckley (d) (1809-1884), botaniste et entomologiste américain qui en avait fait une première description  sous le nom Quercus taxana, nom qui n'était pas valide (nomen invalidum).
 </t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Kevin C. Nixon et Laurence Joseph Dorr, « Typification of the Oak (Quercus) Taxa Described by S. B. Buckley (1809-1884) », Taxon, Utrecht, IAPT (d) et Wiley, vol. 34, no 2,‎ mai 1985, p. 211–228 (ISSN 0040-0262 et 1996-8175, DOI 10.2307/1221780, JSTOR 1221780, lire en ligne)</t>
         </is>
